--- a/LAPEntries/LAP-MoCloAssembly-OT2-1.0.0/VariablesMoCloAssembly.xlsx
+++ b/LAPEntries/LAP-MoCloAssembly-OT2-1.0.0/VariablesMoCloAssembly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anama\OneDrive\Documentos\archivos_en_OT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Documentos\app_\archivos_en_produccion\scripts_conNuevasFunciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07A14B7-E15E-44D8-B78F-5D63C7E588A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6963EE58-D72E-48A4-B56F-36FF02EA6D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2510" yWindow="1020" windowWidth="14400" windowHeight="7810" firstSheet="4" activeTab="4" xr2:uid="{D5639947-8C77-4AC3-8B0C-59BB8C968449}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{D5639947-8C77-4AC3-8B0C-59BB8C968449}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralVariables" sheetId="18" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>vwrblueprintdepth105_96_wellplate_390ul</t>
-  </si>
-  <si>
     <t>Plate 1</t>
   </si>
   <si>
@@ -382,7 +379,10 @@
     <t>Variable Names</t>
   </si>
   <si>
-    <t>opentrons_24_tuberack_1500ul</t>
+    <t>3dprinted_opentrons_shaker_1.5mleppendorf</t>
+  </si>
+  <si>
+    <t>armadillo_96_wellplate_200ul_pcr_full_skirt</t>
   </si>
 </sst>
 </file>
@@ -602,8 +602,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{091FA1DA-7E14-40FC-8B73-82A19EAB91FA}" name="Tabla8" displayName="Tabla8" ref="A1:G13" totalsRowShown="0">
-  <autoFilter ref="A1:G13" xr:uid="{091FA1DA-7E14-40FC-8B73-82A19EAB91FA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{091FA1DA-7E14-40FC-8B73-82A19EAB91FA}" name="Tabla8" displayName="Tabla8" ref="A1:G12" totalsRowShown="0">
+  <autoFilter ref="A1:G12" xr:uid="{091FA1DA-7E14-40FC-8B73-82A19EAB91FA}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C10C2ADD-B5CC-4E68-B0A0-71F13AD4B7F1}" name="Name"/>
     <tableColumn id="2" xr3:uid="{DD4424F7-EB6A-43C4-9F03-19F5D66B0315}" name="Acceptor Plasmid"/>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -917,66 +917,66 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="51.453125" customWidth="1"/>
+    <col min="2" max="2" width="51.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -998,65 +998,65 @@
       <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.81640625" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="1" max="1" width="36.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
       <c r="C2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -1082,74 +1082,74 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1166,82 +1166,82 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>0.2</v>
@@ -1259,88 +1259,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A485CD6-6958-4272-B573-C5BBFAF15FAB}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>87</v>
       </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>88</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>89</v>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>91</v>
       </c>
-      <c r="B8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>92</v>
-      </c>
       <c r="B9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1362,28 +1362,28 @@
       <selection activeCell="A2" sqref="A2:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>98</v>
       </c>
@@ -1391,13 +1391,13 @@
         <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>98</v>
       </c>
@@ -1405,13 +1405,13 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
         <v>81</v>
       </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>30</v>
       </c>
@@ -1419,13 +1419,13 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>72</v>
       </c>
@@ -1436,10 +1436,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>98</v>
       </c>
@@ -1447,13 +1447,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>45</v>
       </c>
@@ -1461,13 +1461,13 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>99</v>
       </c>
@@ -1478,10 +1478,10 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>72</v>
       </c>
@@ -1489,10 +1489,10 @@
         <v>300</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1508,214 +1508,214 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" t="s">
-        <v>95</v>
-      </c>
       <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>108</v>
       </c>
-      <c r="G1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>53</v>
       </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>59</v>
       </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
       <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
         <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1732,17 +1732,17 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.81640625" customWidth="1"/>
-    <col min="3" max="3" width="35.453125" customWidth="1"/>
-    <col min="4" max="4" width="38.1796875" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1762,60 +1762,60 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>98</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>99</v>
-      </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1828,12 +1828,12 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1853,60 +1853,60 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>97</v>
       </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>98</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/LAPEntries/LAP-MoCloAssembly-OT2-1.0.0/VariablesMoCloAssembly.xlsx
+++ b/LAPEntries/LAP-MoCloAssembly-OT2-1.0.0/VariablesMoCloAssembly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Documentos\app_\archivos_en_produccion\scripts_conNuevasFunciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6963EE58-D72E-48A4-B56F-36FF02EA6D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12A1906-1398-462F-98DF-1D15195E5A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{D5639947-8C77-4AC3-8B0C-59BB8C968449}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5639947-8C77-4AC3-8B0C-59BB8C968449}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralVariables" sheetId="18" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="ModuleVariables" sheetId="13" r:id="rId5"/>
     <sheet name="TemperatureProfile" sheetId="19" r:id="rId6"/>
     <sheet name="Combinations" sheetId="7" r:id="rId7"/>
-    <sheet name="parts1" sheetId="6" r:id="rId8"/>
-    <sheet name="parts2" sheetId="8" r:id="rId9"/>
+    <sheet name="DNA_1" sheetId="20" r:id="rId8"/>
+    <sheet name="DNA_2" sheetId="21" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="111">
   <si>
     <t>Value</t>
   </si>
@@ -118,114 +118,6 @@
     <t>Name Map DNA Parts</t>
   </si>
   <si>
-    <t>parts1</t>
-  </si>
-  <si>
-    <t>Lv2-a1c1e1</t>
-  </si>
-  <si>
-    <t>v_gB</t>
-  </si>
-  <si>
-    <t>pBadpTac-RBS_BCD12-GFPmut3-rpoC-g1R</t>
-  </si>
-  <si>
-    <t>pLacI-RBS_BCD12-araC-B0015_E1-g2</t>
-  </si>
-  <si>
-    <t>pLacI-RBS_BCD12-LacI-rpoC-g3</t>
-  </si>
-  <si>
-    <t>Lv2-a1d1b1</t>
-  </si>
-  <si>
-    <t>pLacI-RBS_BCD12-LacI-rpoC-g2</t>
-  </si>
-  <si>
-    <t>pLacI-RBS_BCD12-araC-B0015_E1-g3</t>
-  </si>
-  <si>
-    <t>Lv2-a2b2</t>
-  </si>
-  <si>
-    <t>v_gA</t>
-  </si>
-  <si>
-    <t>pBad-RBS_BCD12-GFPmuy3-rpoC-g1R</t>
-  </si>
-  <si>
-    <t>pBad-RBS_BCD12-araC-B0015_E1-g2</t>
-  </si>
-  <si>
-    <t>Lv2-c2d2</t>
-  </si>
-  <si>
-    <t>pRhasBad-RBS_BCD12-GFPmut3-rpoC-g1R</t>
-  </si>
-  <si>
-    <t>pRhasBad-RBS_BCD12-RhaRS-rpoC-g2</t>
-  </si>
-  <si>
-    <t>Lv2-f1g1</t>
-  </si>
-  <si>
-    <t>pTrc-RBS_BCD12-GFPmut3-rpoC-g1R</t>
-  </si>
-  <si>
-    <t>J23106-RBS_STD-LacI-rpoC-g2</t>
-  </si>
-  <si>
-    <t>Lv2-f1d1</t>
-  </si>
-  <si>
-    <t>CM_L2_1</t>
-  </si>
-  <si>
-    <t>v08</t>
-  </si>
-  <si>
-    <t>L11</t>
-  </si>
-  <si>
-    <t>L12</t>
-  </si>
-  <si>
-    <t>L13</t>
-  </si>
-  <si>
-    <t>CM_L2_2</t>
-  </si>
-  <si>
-    <t>CM_L2_3</t>
-  </si>
-  <si>
-    <t>v10</t>
-  </si>
-  <si>
-    <t>L16</t>
-  </si>
-  <si>
-    <t>L17</t>
-  </si>
-  <si>
-    <t>CM_L2_4</t>
-  </si>
-  <si>
-    <t>v07</t>
-  </si>
-  <si>
-    <t>L14</t>
-  </si>
-  <si>
-    <t>L15</t>
-  </si>
-  <si>
-    <t>CM_L2_5</t>
-  </si>
-  <si>
-    <t>v14</t>
-  </si>
-  <si>
     <t>Extra Pipetting Factor</t>
   </si>
   <si>
@@ -346,9 +238,6 @@
     <t>p20_single_gen2</t>
   </si>
   <si>
-    <t>parts2</t>
-  </si>
-  <si>
     <t>B1</t>
   </si>
   <si>
@@ -379,17 +268,122 @@
     <t>Variable Names</t>
   </si>
   <si>
+    <t>pSEVA23g19[g1]</t>
+  </si>
+  <si>
+    <t>J23106_AB</t>
+  </si>
+  <si>
+    <t>RBS-Std_BD</t>
+  </si>
+  <si>
+    <t>GFP_DG</t>
+  </si>
+  <si>
+    <t>rpoC_GI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>pSEVA23g19[g2]</t>
+  </si>
+  <si>
+    <t>Ptrc_AB</t>
+  </si>
+  <si>
+    <t>BCD12_BD</t>
+  </si>
+  <si>
+    <t>pSEVA2819[g1]</t>
+  </si>
+  <si>
+    <t>pSEVA2819[g2]</t>
+  </si>
+  <si>
+    <t>pSEVA2219[g1]</t>
+  </si>
+  <si>
+    <t>pSEVA2219[g2]</t>
+  </si>
+  <si>
+    <t>T7RBS_BC</t>
+  </si>
+  <si>
+    <t>N-PelB-tag_CD</t>
+  </si>
+  <si>
+    <t>T500_GI</t>
+  </si>
+  <si>
+    <t>Const_2</t>
+  </si>
+  <si>
+    <t>Const_6</t>
+  </si>
+  <si>
+    <t>Const_1</t>
+  </si>
+  <si>
+    <t>Const_3</t>
+  </si>
+  <si>
+    <t>Const_4</t>
+  </si>
+  <si>
+    <t>Const_5</t>
+  </si>
+  <si>
+    <t>Const_7</t>
+  </si>
+  <si>
+    <t>Const_8</t>
+  </si>
+  <si>
+    <t>Const_9</t>
+  </si>
+  <si>
+    <t>Const_10</t>
+  </si>
+  <si>
+    <t>Const_11</t>
+  </si>
+  <si>
+    <t>DNA_1</t>
+  </si>
+  <si>
+    <t>DNA_2</t>
+  </si>
+  <si>
+    <t>pSEVA2819[g1R]</t>
+  </si>
+  <si>
+    <t>pSEVA2219[g3]</t>
+  </si>
+  <si>
+    <t>Pm_AB</t>
+  </si>
+  <si>
+    <t>T7RBS_BD</t>
+  </si>
+  <si>
+    <t>Linker 1_GI</t>
+  </si>
+  <si>
+    <t>RFP_DG</t>
+  </si>
+  <si>
     <t>3dprinted_opentrons_shaker_1.5mleppendorf</t>
   </si>
   <si>
-    <t>armadillo_96_wellplate_200ul_pcr_full_skirt</t>
+    <t>nest_96_wellplate_200ul_flat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +401,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -460,18 +461,136 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -567,7 +686,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C441642D-D4C7-452A-AFAB-9E0D4C042AFB}" name="Tabla6" displayName="Tabla6" ref="A1:B9" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C441642D-D4C7-452A-AFAB-9E0D4C042AFB}" name="Tabla6" displayName="Tabla6" ref="A1:B9" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A1:B9" xr:uid="{C441642D-D4C7-452A-AFAB-9E0D4C042AFB}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A4981818-FF3B-4AF6-A692-B8474E703961}" name="Variable Names"/>
@@ -602,16 +721,16 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{091FA1DA-7E14-40FC-8B73-82A19EAB91FA}" name="Tabla8" displayName="Tabla8" ref="A1:G12" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{091FA1DA-7E14-40FC-8B73-82A19EAB91FA}" name="Tabla8" displayName="Tabla8" ref="A1:G12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G12" xr:uid="{091FA1DA-7E14-40FC-8B73-82A19EAB91FA}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C10C2ADD-B5CC-4E68-B0A0-71F13AD4B7F1}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{DD4424F7-EB6A-43C4-9F03-19F5D66B0315}" name="Acceptor Plasmid"/>
-    <tableColumn id="3" xr3:uid="{587651F8-5BF5-4996-9EBC-E4A21E21CEC3}" name="Part 1"/>
-    <tableColumn id="4" xr3:uid="{90236668-C798-4118-BCB0-BA7E113015DF}" name="Part 2"/>
-    <tableColumn id="5" xr3:uid="{E1F2BB29-1BE8-4508-A6C4-D21ED2CFF1D5}" name="Part 3"/>
-    <tableColumn id="6" xr3:uid="{57CC3AA9-003F-4B00-90FD-F8BC4F2EC601}" name="Part 4"/>
-    <tableColumn id="7" xr3:uid="{164EF33A-480D-41F5-A07A-EC302544F9B9}" name="Part 5"/>
+    <tableColumn id="1" xr3:uid="{C10C2ADD-B5CC-4E68-B0A0-71F13AD4B7F1}" name="Name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{DD4424F7-EB6A-43C4-9F03-19F5D66B0315}" name="Acceptor Plasmid" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{587651F8-5BF5-4996-9EBC-E4A21E21CEC3}" name="Part 1" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{90236668-C798-4118-BCB0-BA7E113015DF}" name="Part 2" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E1F2BB29-1BE8-4508-A6C4-D21ED2CFF1D5}" name="Part 3" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{57CC3AA9-003F-4B00-90FD-F8BC4F2EC601}" name="Part 4" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{164EF33A-480D-41F5-A07A-EC302544F9B9}" name="Part 5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -916,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B073E1-091D-4358-B5E8-41C3F3D654E4}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -928,7 +1047,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -939,44 +1058,44 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -995,19 +1114,19 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.77734375" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="3" max="3" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1048,21 +1167,21 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1084,13 +1203,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1101,7 +1220,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1109,7 +1228,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1133,7 +1252,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1141,7 +1260,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1166,18 +1285,18 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1185,7 +1304,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1193,7 +1312,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1201,7 +1320,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -1209,7 +1328,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1217,7 +1336,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1225,7 +1344,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1233,7 +1352,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -1241,7 +1360,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>0.2</v>
@@ -1259,19 +1378,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A485CD6-6958-4272-B573-C5BBFAF15FAB}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1279,31 +1398,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -1311,12 +1430,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -1324,23 +1443,23 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1364,23 +1483,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1391,10 +1510,10 @@
         <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1405,10 +1524,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1419,10 +1538,10 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1436,7 +1555,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1447,10 +1566,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1461,10 +1580,10 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1478,7 +1597,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1489,10 +1608,10 @@
         <v>300</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1627,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1516,207 +1635,283 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="31.21875" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
+        <v>99</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
+        <v>100</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1728,18 +1923,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFF4719-D48C-4337-BB3E-14CE30FC8006}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5483947C-09F3-4140-8928-2CC5CEC86009}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.77734375" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1764,74 +1958,72 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
+        <v>85</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
+        <v>86</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BACB0B8-D9E5-46F8-876D-734381DB5C17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253B4E25-1D25-43F8-9745-EED3C0CC135D}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1">
@@ -1855,58 +2047,52 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
